--- a/document/考勤时间计算.xlsx
+++ b/document/考勤时间计算.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
   <si>
     <t>叶国强</t>
   </si>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早上需补时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上已补时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已补(min)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,15 +67,32 @@
     <t>多余(h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>晚上忘打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上忘打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：仅需修改上面标黄的部分！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上需补时间(min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上已补时间(min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,12 +112,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -116,15 +141,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,13 +169,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,52 +204,76 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -487,26 +563,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="7"/>
-    <col min="5" max="5" width="10.33203125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="7" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="7"/>
-    <col min="16" max="16" width="14" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -528,796 +608,1055 @@
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
         <v>43129</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="11">
         <v>0.3666666666666667</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="11">
         <v>0.3666666666666667</v>
       </c>
-      <c r="H2" s="10">
-        <f t="shared" ref="H2:H21" si="0">IF((F2-M2)&gt;=0,(F2-M2)*1440,0)</f>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13">
+        <f>IF((F2-M2)&gt;=0,IF((F2-M2)*1440&gt;90,0,(F2-M2)*1440),0)</f>
         <v>18.000000000000014</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="M2" s="8">
+      <c r="J2" s="13">
+        <f>IF(G2-N2&gt;=0,IF((G2-N2)*1440&gt;90,(G2-N2)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="14" t="str">
+        <f>IF((F2-M2)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L2" s="14" t="str">
+        <f>IF((G2-N2)&lt;0,IF((G2-N2)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v>晚上忘打卡</v>
+      </c>
+      <c r="M2" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="15">
         <v>0.77083333333333337</v>
       </c>
-      <c r="P2" s="10">
+      <c r="O2" s="16">
+        <f>SUM(J2:J21)</f>
+        <v>868.00000000000284</v>
+      </c>
+      <c r="P2" s="8">
         <f>SUM(I2:I21)</f>
-        <v>908.0000000000033</v>
-      </c>
-      <c r="Q2" s="7">
-        <f>SUM(H2:H21)</f>
         <v>497.99999999999244</v>
       </c>
-      <c r="R2" s="10">
-        <f>ROUND(IMSUB(P2,Q2)/60,2)</f>
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="Q2" s="16">
+        <f>ROUND(IMSUB(O2,P2)/60,2)</f>
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
         <v>43126</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="11">
         <v>0.37986111111111115</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="11">
         <v>0.75138888888888899</v>
       </c>
-      <c r="H3" s="10">
-        <f t="shared" si="0"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13">
+        <f>IF((F3-M3)&gt;=0,IF((F3-M3)*1440&gt;90,0,(F3-M3)*1440),0)</f>
         <v>37.000000000000028</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I5" si="1">IF(G3-N3&gt;=0,(G3-N3)*1440,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
+      <c r="J3" s="13">
+        <f>IF(G3-N3&gt;=0,IF((G3-N3)*1440&gt;90,(G3-N3)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="14" t="str">
+        <f>IF((F3-M3)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L3" s="14" t="str">
+        <f>IF((G3-N3)&lt;0,IF((G3-N3)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M3" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="15">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
         <v>43125</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="11">
         <v>0.37708333333333338</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="11">
         <v>0.75138888888888899</v>
       </c>
-      <c r="H4" s="10">
-        <f t="shared" si="0"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13">
+        <f>IF((F4-M4)&gt;=0,IF((F4-M4)*1440&gt;90,0,(F4-M4)*1440),0)</f>
         <v>33.000000000000043</v>
       </c>
-      <c r="I4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
+      <c r="J4" s="13">
+        <f>IF(G4-N4&gt;=0,IF((G4-N4)*1440&gt;90,(G4-N4)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="14" t="str">
+        <f>IF((F4-M4)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L4" s="14" t="str">
+        <f>IF((G4-N4)&lt;0,IF((G4-N4)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="15">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="15">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>43124</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="11">
         <v>0.37083333333333335</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>0.75277777777777777</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" si="0"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13">
+        <f>IF((F5-M5)&gt;=0,IF((F5-M5)*1440&gt;90,0,(F5-M5)*1440),0)</f>
         <v>23.999999999999517</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="J5" s="13">
+        <f>IF(G5-N5&gt;=0,IF((G5-N5)*1440&gt;90,(G5-N5)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="str">
+        <f>IF((F5-M5)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L5" s="14" t="str">
+        <f>IF((G5-N5)&lt;0,IF((G5-N5)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="15">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
         <v>43123</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="11">
         <v>0.37152777777777773</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="11">
         <v>0.85625000000000007</v>
       </c>
-      <c r="H6" s="10">
-        <f t="shared" si="0"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13">
+        <f>IF((F6-M6)&gt;=0,IF((F6-M6)*1440&gt;90,0,(F6-M6)*1440),0)</f>
         <v>24.999999999999432</v>
       </c>
-      <c r="I6" s="10">
-        <f>IF(G6-N6&gt;=0,(G6-N6)*1440,0)</f>
+      <c r="J6" s="13">
+        <f>IF(G6-N6&gt;=0,IF((G6-N6)*1440&gt;90,(G6-N6)*1440,0),0)</f>
         <v>123.00000000000053</v>
       </c>
-      <c r="M6" s="8">
+      <c r="K6" s="14" t="str">
+        <f>IF((F6-M6)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L6" s="14" t="str">
+        <f>IF((G6-N6)&lt;0,IF((G6-N6)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M6" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>43122</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="11">
         <v>0.35555555555555557</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="11">
         <v>0.8569444444444444</v>
       </c>
-      <c r="H7" s="10">
-        <f t="shared" si="0"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13">
+        <f>IF((F7-M7)&gt;=0,IF((F7-M7)*1440&gt;90,0,(F7-M7)*1440),0)</f>
         <v>1.9999999999995133</v>
       </c>
-      <c r="I7" s="10">
-        <f>IF(G7-N7&gt;=0,(G7-N7)*1440,0)</f>
+      <c r="J7" s="13">
+        <f>IF(G7-N7&gt;=0,IF((G7-N7)*1440&gt;90,(G7-N7)*1440,0),0)</f>
         <v>124.00000000000036</v>
       </c>
-      <c r="M7" s="8">
+      <c r="K7" s="14" t="str">
+        <f>IF((F7-M7)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L7" s="14" t="str">
+        <f>IF((G7-N7)&lt;0,IF((G7-N7)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M7" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>43119</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="11">
         <v>0.38194444444444442</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="11">
         <v>0.75138888888888899</v>
       </c>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13">
+        <f>IF((F8-M8)&gt;=0,IF((F8-M8)*1440&gt;90,0,(F8-M8)*1440),0)</f>
         <v>39.99999999999946</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" ref="I8:I21" si="2">IF(G8-N8&gt;=0,(G8-N8)*1440,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
+      <c r="J8" s="13">
+        <f>IF(G8-N8&gt;=0,IF((G8-N8)*1440&gt;90,(G8-N8)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="14" t="str">
+        <f>IF((F8-M8)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L8" s="14" t="str">
+        <f>IF((G8-N8)&lt;0,IF((G8-N8)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
         <v>43118</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="11">
         <v>0.3527777777777778</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="11">
         <v>0.75486111111111109</v>
       </c>
-      <c r="H9" s="10">
-        <f>IF((F9-M9)&gt;=0,(F9-M9)*1440,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="H9" s="12"/>
+      <c r="I9" s="13">
+        <f>IF((F9-M9)&gt;=0,IF((F9-M9)*1440&gt;90,0,(F9-M9)*1440),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f>IF(G9-N9&gt;=0,IF((G9-N9)*1440&gt;90,(G9-N9)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14" t="str">
+        <f>IF((F9-M9)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L9" s="14" t="str">
+        <f>IF((G9-N9)&lt;0,IF((G9-N9)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>43117</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="11">
         <v>0.37986111111111115</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="11">
         <v>0.85763888888888884</v>
       </c>
-      <c r="H10" s="10">
-        <f t="shared" si="0"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13">
+        <f>IF((F10-M10)&gt;=0,IF((F10-M10)*1440&gt;90,0,(F10-M10)*1440),0)</f>
         <v>36.999999999999545</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="2"/>
+      <c r="J10" s="13">
+        <f>IF(G10-N10&gt;=0,IF((G10-N10)*1440&gt;90,(G10-N10)*1440,0),0)</f>
         <v>125.00000000000036</v>
       </c>
-      <c r="M10" s="8">
+      <c r="K10" s="14" t="str">
+        <f>IF((F10-M10)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L10" s="14" t="str">
+        <f>IF((G10-N10)&lt;0,IF((G10-N10)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
         <v>43116</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="11">
         <v>0.35972222222222222</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="11">
         <v>0.75416666666666676</v>
       </c>
-      <c r="H11" s="10">
-        <f t="shared" si="0"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13">
+        <f>IF((F11-M11)&gt;=0,IF((F11-M11)*1440&gt;90,0,(F11-M11)*1440),0)</f>
         <v>7.999999999999492</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
+      <c r="J11" s="13">
+        <f>IF(G11-N11&gt;=0,IF((G11-N11)*1440&gt;90,(G11-N11)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="14" t="str">
+        <f>IF((F11-M11)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L11" s="14" t="str">
+        <f>IF((G11-N11)&lt;0,IF((G11-N11)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="15" customFormat="1">
-      <c r="A12" s="11">
-        <v>54780</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1">
+      <c r="A12" s="17">
+        <v>54780</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
         <v>43115</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="19">
         <v>0.75694444444444453</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="19">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="16">
+      <c r="H12" s="20"/>
+      <c r="I12" s="21">
+        <f>IF((F12-M12)&gt;=0,IF((F12-M12)*1440&gt;90,0,(F12-M12)*1440),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <f>IF(G12-N12&gt;=0,IF((G12-N12)*1440&gt;90,(G12-N12)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="14" t="str">
+        <f>IF((F12-M12)*1440&gt;90,"早上忘打卡","")</f>
+        <v>早上忘打卡</v>
+      </c>
+      <c r="L12" s="14" t="str">
+        <f>IF((G12-N12)&lt;0,IF((G12-N12)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="23">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="23">
         <v>0.77083333333333304</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>43112</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="11">
         <v>0.36319444444444443</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="11">
         <v>0.79861111111111116</v>
       </c>
-      <c r="H13" s="10">
-        <f t="shared" si="0"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13">
+        <f>IF((F13-M13)&gt;=0,IF((F13-M13)*1440&gt;90,0,(F13-M13)*1440),0)</f>
         <v>12.999999999999474</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="2"/>
-        <v>40.000000000000497</v>
-      </c>
-      <c r="M13" s="8">
+      <c r="J13" s="13">
+        <f>IF(G13-N13&gt;=0,IF((G13-N13)*1440&gt;90,(G13-N13)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14" t="str">
+        <f>IF((F13-M13)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L13" s="14" t="str">
+        <f>IF((G13-N13)&lt;0,IF((G13-N13)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
         <v>43111</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="11">
         <v>0.3659722222222222</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="11">
         <v>0.76180555555555562</v>
       </c>
-      <c r="H14" s="10">
-        <f t="shared" si="0"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13">
+        <f>IF((F14-M14)&gt;=0,IF((F14-M14)*1440&gt;90,0,(F14-M14)*1440),0)</f>
         <v>16.99999999999946</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
+      <c r="J14" s="13">
+        <f>IF(G14-N14&gt;=0,IF((G14-N14)*1440&gt;90,(G14-N14)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14" t="str">
+        <f>IF((F14-M14)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L14" s="14" t="str">
+        <f>IF((G14-N14)&lt;0,IF((G14-N14)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
         <v>43110</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="11">
         <v>0.36388888888888887</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="11">
         <v>0.85972222222222217</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="0"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13">
+        <f>IF((F15-M15)&gt;=0,IF((F15-M15)*1440&gt;90,0,(F15-M15)*1440),0)</f>
         <v>13.999999999999471</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="2"/>
+      <c r="J15" s="13">
+        <f>IF(G15-N15&gt;=0,IF((G15-N15)*1440&gt;90,(G15-N15)*1440,0),0)</f>
         <v>128.00000000000034</v>
       </c>
-      <c r="M15" s="8">
+      <c r="K15" s="14" t="str">
+        <f>IF((F15-M15)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L15" s="14" t="str">
+        <f>IF((G15-N15)&lt;0,IF((G15-N15)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
         <v>43109</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="11">
         <v>0.36249999999999999</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="11">
         <v>0.75624999999999998</v>
       </c>
-      <c r="H16" s="10">
-        <f t="shared" si="0"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13">
+        <f>IF((F16-M16)&gt;=0,IF((F16-M16)*1440&gt;90,0,(F16-M16)*1440),0)</f>
         <v>11.999999999999478</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="J16" s="13">
+        <f>IF(G16-N16&gt;=0,IF((G16-N16)*1440&gt;90,(G16-N16)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14" t="str">
+        <f>IF((F16-M16)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L16" s="14" t="str">
+        <f>IF((G16-N16)&lt;0,IF((G16-N16)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
         <v>43108</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="11">
         <v>0.38958333333333334</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="11">
         <v>0.85625000000000007</v>
       </c>
-      <c r="H17" s="10">
-        <f t="shared" si="0"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13">
+        <f>IF((F17-M17)&gt;=0,IF((F17-M17)*1440&gt;90,0,(F17-M17)*1440),0)</f>
         <v>50.999999999999503</v>
       </c>
-      <c r="I17" s="10">
-        <f t="shared" si="2"/>
+      <c r="J17" s="13">
+        <f>IF(G17-N17&gt;=0,IF((G17-N17)*1440&gt;90,(G17-N17)*1440,0),0)</f>
         <v>123.00000000000053</v>
       </c>
-      <c r="M17" s="8">
+      <c r="K17" s="14" t="str">
+        <f>IF((F17-M17)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L17" s="14" t="str">
+        <f>IF((G17-N17)&lt;0,IF((G17-N17)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
         <v>43105</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="11">
         <v>0.37291666666666662</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="11">
         <v>0.75486111111111109</v>
       </c>
-      <c r="H18" s="10">
-        <f t="shared" si="0"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13">
+        <f>IF((F18-M18)&gt;=0,IF((F18-M18)*1440&gt;90,0,(F18-M18)*1440),0)</f>
         <v>26.999999999999424</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
+      <c r="J18" s="13">
+        <f>IF(G18-N18&gt;=0,IF((G18-N18)*1440&gt;90,(G18-N18)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14" t="str">
+        <f>IF((F18-M18)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L18" s="14" t="str">
+        <f>IF((G18-N18)&lt;0,IF((G18-N18)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
         <v>43104</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="11">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="11">
         <v>0.8569444444444444</v>
       </c>
-      <c r="H19" s="10">
-        <f t="shared" si="0"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13">
+        <f>IF((F19-M19)&gt;=0,IF((F19-M19)*1440&gt;90,0,(F19-M19)*1440),0)</f>
         <v>44.999999999999517</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="2"/>
+      <c r="J19" s="13">
+        <f>IF(G19-N19&gt;=0,IF((G19-N19)*1440&gt;90,(G19-N19)*1440,0),0)</f>
         <v>124.00000000000036</v>
       </c>
-      <c r="M19" s="8">
+      <c r="K19" s="14" t="str">
+        <f>IF((F19-M19)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L19" s="14" t="str">
+        <f>IF((G19-N19)&lt;0,IF((G19-N19)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>43103</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="11">
         <v>0.38611111111111113</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="11">
         <v>0.75347222222222221</v>
       </c>
-      <c r="H20" s="10">
-        <f t="shared" si="0"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13">
+        <f>IF((F20-M20)&gt;=0,IF((F20-M20)*1440&gt;90,0,(F20-M20)*1440),0)</f>
         <v>45.999999999999517</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
+      <c r="J20" s="13">
+        <f>IF(G20-N20&gt;=0,IF((G20-N20)*1440&gt;90,(G20-N20)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14" t="str">
+        <f>IF((F20-M20)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L20" s="14" t="str">
+        <f>IF((G20-N20)&lt;0,IF((G20-N20)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="4">
-        <v>54780</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="9">
+        <v>54780</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
         <v>43102</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="11">
         <v>0.38819444444444445</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="11">
         <v>0.85486111111111107</v>
       </c>
-      <c r="H21" s="10">
-        <f t="shared" si="0"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13">
+        <f>IF((F21-M21)&gt;=0,IF((F21-M21)*1440&gt;90,0,(F21-M21)*1440),0)</f>
         <v>48.999999999999503</v>
       </c>
-      <c r="I21" s="10">
-        <f t="shared" si="2"/>
+      <c r="J21" s="13">
+        <f>IF(G21-N21&gt;=0,IF((G21-N21)*1440&gt;90,(G21-N21)*1440,0),0)</f>
         <v>121.00000000000037</v>
       </c>
-      <c r="M21" s="8">
+      <c r="K21" s="14" t="str">
+        <f>IF((F21-M21)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L21" s="14" t="str">
+        <f>IF((G21-N21)&lt;0,IF((G21-N21)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="15">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="15">
         <v>0.77083333333333304</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.4" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" ht="14.4" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="14.4" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1325,8 +1664,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1334,8 +1674,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1343,8 +1684,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1352,8 +1694,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1361,8 +1704,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1370,8 +1714,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1379,8 +1724,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1388,8 +1734,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1397,8 +1744,9 @@
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1406,8 +1754,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1415,8 +1764,9 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1424,8 +1774,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1433,8 +1784,9 @@
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1442,8 +1794,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1451,8 +1804,9 @@
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1460,8 +1814,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1469,8 +1824,9 @@
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1478,9 +1834,18 @@
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:F27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K2:L21">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>ISEVEN(ROW()+1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/document/考勤时间计算.xlsx
+++ b/document/考勤时间计算.xlsx
@@ -209,9 +209,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -261,6 +258,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +566,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -580,1079 +580,1079 @@
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="4" customWidth="1"/>
     <col min="15" max="16" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="A2" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
         <v>43129</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0.3666666666666667</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>0.3666666666666667</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13">
-        <f>IF((F2-M2)&gt;=0,IF((F2-M2)*1440&gt;90,0,(F2-M2)*1440),0)</f>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12">
+        <f t="shared" ref="I2:I21" si="0">IF((F2-M2)&gt;=0,IF((F2-M2)*1440&gt;90,0,(F2-M2)*1440),0)</f>
         <v>18.000000000000014</v>
       </c>
-      <c r="J2" s="13">
-        <f>IF(G2-N2&gt;=0,IF((G2-N2)*1440&gt;90,(G2-N2)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="14" t="str">
-        <f>IF((F2-M2)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L2" s="14" t="str">
-        <f>IF((G2-N2)&lt;0,IF((G2-N2)*1440&lt;-30,"晚上忘打卡",""),"")</f>
+      <c r="J2" s="12">
+        <f t="shared" ref="J2:J21" si="1">IF(G2-N2&gt;=0,IF((G2-N2)*1440&gt;30,(G2-N2)*1440,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="str">
+        <f t="shared" ref="K2:K21" si="2">IF((F2-M2)*1440&gt;90,"早上忘打卡","")</f>
+        <v/>
+      </c>
+      <c r="L2" s="13" t="str">
+        <f t="shared" ref="L2:L21" si="3">IF((G2-N2)&lt;0,IF((G2-N2)*1440&lt;-30,"晚上忘打卡",""),"")</f>
         <v>晚上忘打卡</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>0.77083333333333337</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <f>SUM(J2:J21)</f>
-        <v>868.00000000000284</v>
-      </c>
-      <c r="P2" s="8">
+        <v>908.0000000000033</v>
+      </c>
+      <c r="P2" s="7">
         <f>SUM(I2:I21)</f>
         <v>497.99999999999244</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="15">
         <f>ROUND(IMSUB(O2,P2)/60,2)</f>
-        <v>6.17</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="A3" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
         <v>43126</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.37986111111111115</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>0.75138888888888899</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13">
-        <f>IF((F3-M3)&gt;=0,IF((F3-M3)*1440&gt;90,0,(F3-M3)*1440),0)</f>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12">
+        <f t="shared" si="0"/>
         <v>37.000000000000028</v>
       </c>
-      <c r="J3" s="13">
-        <f>IF(G3-N3&gt;=0,IF((G3-N3)*1440&gt;90,(G3-N3)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="14" t="str">
-        <f>IF((F3-M3)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L3" s="14" t="str">
-        <f>IF((G3-N3)&lt;0,IF((G3-N3)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M3" s="15">
+      <c r="J3" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L3" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M3" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>0.77083333333333337</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="A4" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
         <v>43125</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0.37708333333333338</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>0.75138888888888899</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13">
-        <f>IF((F4-M4)&gt;=0,IF((F4-M4)*1440&gt;90,0,(F4-M4)*1440),0)</f>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12">
+        <f t="shared" si="0"/>
         <v>33.000000000000043</v>
       </c>
-      <c r="J4" s="13">
-        <f>IF(G4-N4&gt;=0,IF((G4-N4)*1440&gt;90,(G4-N4)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="14" t="str">
-        <f>IF((F4-M4)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L4" s="14" t="str">
-        <f>IF((G4-N4)&lt;0,IF((G4-N4)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M4" s="15">
+      <c r="J4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L4" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M4" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>0.77083333333333337</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="A5" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
         <v>43124</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.37083333333333335</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0.75277777777777777</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13">
-        <f>IF((F5-M5)&gt;=0,IF((F5-M5)*1440&gt;90,0,(F5-M5)*1440),0)</f>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
         <v>23.999999999999517</v>
       </c>
-      <c r="J5" s="13">
-        <f>IF(G5-N5&gt;=0,IF((G5-N5)*1440&gt;90,(G5-N5)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="14" t="str">
-        <f>IF((F5-M5)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L5" s="14" t="str">
-        <f>IF((G5-N5)&lt;0,IF((G5-N5)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="15">
+      <c r="J5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L5" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M5" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>0.77083333333333337</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="A6" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
         <v>43123</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.37152777777777773</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.85625000000000007</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13">
-        <f>IF((F6-M6)&gt;=0,IF((F6-M6)*1440&gt;90,0,(F6-M6)*1440),0)</f>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
         <v>24.999999999999432</v>
       </c>
-      <c r="J6" s="13">
-        <f>IF(G6-N6&gt;=0,IF((G6-N6)*1440&gt;90,(G6-N6)*1440,0),0)</f>
+      <c r="J6" s="12">
+        <f t="shared" si="1"/>
         <v>123.00000000000053</v>
       </c>
-      <c r="K6" s="14" t="str">
-        <f>IF((F6-M6)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L6" s="14" t="str">
-        <f>IF((G6-N6)&lt;0,IF((G6-N6)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="15">
+      <c r="K6" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L6" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M6" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="A7" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
         <v>43122</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0.35555555555555557</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.8569444444444444</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13">
-        <f>IF((F7-M7)&gt;=0,IF((F7-M7)*1440&gt;90,0,(F7-M7)*1440),0)</f>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
         <v>1.9999999999995133</v>
       </c>
-      <c r="J7" s="13">
-        <f>IF(G7-N7&gt;=0,IF((G7-N7)*1440&gt;90,(G7-N7)*1440,0),0)</f>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
         <v>124.00000000000036</v>
       </c>
-      <c r="K7" s="14" t="str">
-        <f>IF((F7-M7)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L7" s="14" t="str">
-        <f>IF((G7-N7)&lt;0,IF((G7-N7)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="15">
+      <c r="K7" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L7" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M7" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="A8" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
         <v>43119</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.38194444444444442</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>0.75138888888888899</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13">
-        <f>IF((F8-M8)&gt;=0,IF((F8-M8)*1440&gt;90,0,(F8-M8)*1440),0)</f>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
         <v>39.99999999999946</v>
       </c>
-      <c r="J8" s="13">
-        <f>IF(G8-N8&gt;=0,IF((G8-N8)*1440&gt;90,(G8-N8)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="14" t="str">
-        <f>IF((F8-M8)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L8" s="14" t="str">
-        <f>IF((G8-N8)&lt;0,IF((G8-N8)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="15">
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L8" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="A9" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
         <v>43118</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.3527777777777778</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.75486111111111109</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13">
-        <f>IF((F9-M9)&gt;=0,IF((F9-M9)*1440&gt;90,0,(F9-M9)*1440),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <f>IF(G9-N9&gt;=0,IF((G9-N9)*1440&gt;90,(G9-N9)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14" t="str">
-        <f>IF((F9-M9)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L9" s="14" t="str">
-        <f>IF((G9-N9)&lt;0,IF((G9-N9)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="15">
+      <c r="H9" s="11"/>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L9" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M9" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="A10" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
         <v>43117</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>0.37986111111111115</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.85763888888888884</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13">
-        <f>IF((F10-M10)&gt;=0,IF((F10-M10)*1440&gt;90,0,(F10-M10)*1440),0)</f>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
         <v>36.999999999999545</v>
       </c>
-      <c r="J10" s="13">
-        <f>IF(G10-N10&gt;=0,IF((G10-N10)*1440&gt;90,(G10-N10)*1440,0),0)</f>
+      <c r="J10" s="12">
+        <f>IF(G10-N10&gt;=0,IF((G10-N10)*1440&gt;30,(G10-N10)*1440,0),0)</f>
         <v>125.00000000000036</v>
       </c>
-      <c r="K10" s="14" t="str">
-        <f>IF((F10-M10)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L10" s="14" t="str">
-        <f>IF((G10-N10)&lt;0,IF((G10-N10)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="15">
+      <c r="K10" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M10" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="A11" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
         <v>43116</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>0.35972222222222222</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>0.75416666666666676</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13">
-        <f>IF((F11-M11)&gt;=0,IF((F11-M11)*1440&gt;90,0,(F11-M11)*1440),0)</f>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
         <v>7.999999999999492</v>
       </c>
-      <c r="J11" s="13">
-        <f>IF(G11-N11&gt;=0,IF((G11-N11)*1440&gt;90,(G11-N11)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="14" t="str">
-        <f>IF((F11-M11)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L11" s="14" t="str">
-        <f>IF((G11-N11)&lt;0,IF((G11-N11)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="15">
+      <c r="J11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M11" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" s="5" customFormat="1">
-      <c r="A12" s="17">
-        <v>54780</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="A12" s="16">
+        <v>54780</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
         <v>43115</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>0.75694444444444453</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21">
-        <f>IF((F12-M12)&gt;=0,IF((F12-M12)*1440&gt;90,0,(F12-M12)*1440),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <f>IF(G12-N12&gt;=0,IF((G12-N12)*1440&gt;90,(G12-N12)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="14" t="str">
-        <f>IF((F12-M12)*1440&gt;90,"早上忘打卡","")</f>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>早上忘打卡</v>
       </c>
-      <c r="L12" s="14" t="str">
-        <f>IF((G12-N12)&lt;0,IF((G12-N12)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="23">
+      <c r="L12" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" s="22">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="22">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="A13" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
         <v>43112</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>0.36319444444444443</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>0.79861111111111116</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13">
-        <f>IF((F13-M13)&gt;=0,IF((F13-M13)*1440&gt;90,0,(F13-M13)*1440),0)</f>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
         <v>12.999999999999474</v>
       </c>
-      <c r="J13" s="13">
-        <f>IF(G13-N13&gt;=0,IF((G13-N13)*1440&gt;90,(G13-N13)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="14" t="str">
-        <f>IF((F13-M13)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L13" s="14" t="str">
-        <f>IF((G13-N13)&lt;0,IF((G13-N13)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="15">
+      <c r="J13" s="12">
+        <f t="shared" si="1"/>
+        <v>40.000000000000497</v>
+      </c>
+      <c r="K13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="A14" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
         <v>43111</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0.3659722222222222</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.76180555555555562</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13">
-        <f>IF((F14-M14)&gt;=0,IF((F14-M14)*1440&gt;90,0,(F14-M14)*1440),0)</f>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12">
+        <f t="shared" si="0"/>
         <v>16.99999999999946</v>
       </c>
-      <c r="J14" s="13">
-        <f>IF(G14-N14&gt;=0,IF((G14-N14)*1440&gt;90,(G14-N14)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="14" t="str">
-        <f>IF((F14-M14)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L14" s="14" t="str">
-        <f>IF((G14-N14)&lt;0,IF((G14-N14)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="15">
+      <c r="J14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="A15" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
         <v>43110</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>0.36388888888888887</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>0.85972222222222217</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13">
-        <f>IF((F15-M15)&gt;=0,IF((F15-M15)*1440&gt;90,0,(F15-M15)*1440),0)</f>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12">
+        <f t="shared" si="0"/>
         <v>13.999999999999471</v>
       </c>
-      <c r="J15" s="13">
-        <f>IF(G15-N15&gt;=0,IF((G15-N15)*1440&gt;90,(G15-N15)*1440,0),0)</f>
+      <c r="J15" s="12">
+        <f t="shared" si="1"/>
         <v>128.00000000000034</v>
       </c>
-      <c r="K15" s="14" t="str">
-        <f>IF((F15-M15)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L15" s="14" t="str">
-        <f>IF((G15-N15)&lt;0,IF((G15-N15)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="15">
+      <c r="K15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M15" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="A16" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
         <v>43109</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>0.36249999999999999</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>0.75624999999999998</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13">
-        <f>IF((F16-M16)&gt;=0,IF((F16-M16)*1440&gt;90,0,(F16-M16)*1440),0)</f>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12">
+        <f t="shared" si="0"/>
         <v>11.999999999999478</v>
       </c>
-      <c r="J16" s="13">
-        <f>IF(G16-N16&gt;=0,IF((G16-N16)*1440&gt;90,(G16-N16)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14" t="str">
-        <f>IF((F16-M16)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L16" s="14" t="str">
-        <f>IF((G16-N16)&lt;0,IF((G16-N16)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="15">
+      <c r="J16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M16" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="A17" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>43108</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>0.38958333333333334</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>0.85625000000000007</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13">
-        <f>IF((F17-M17)&gt;=0,IF((F17-M17)*1440&gt;90,0,(F17-M17)*1440),0)</f>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12">
+        <f t="shared" si="0"/>
         <v>50.999999999999503</v>
       </c>
-      <c r="J17" s="13">
-        <f>IF(G17-N17&gt;=0,IF((G17-N17)*1440&gt;90,(G17-N17)*1440,0),0)</f>
+      <c r="J17" s="12">
+        <f t="shared" si="1"/>
         <v>123.00000000000053</v>
       </c>
-      <c r="K17" s="14" t="str">
-        <f>IF((F17-M17)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L17" s="14" t="str">
-        <f>IF((G17-N17)&lt;0,IF((G17-N17)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M17" s="15">
+      <c r="K17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M17" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="A18" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>43105</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>0.37291666666666662</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>0.75486111111111109</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13">
-        <f>IF((F18-M18)&gt;=0,IF((F18-M18)*1440&gt;90,0,(F18-M18)*1440),0)</f>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
         <v>26.999999999999424</v>
       </c>
-      <c r="J18" s="13">
-        <f>IF(G18-N18&gt;=0,IF((G18-N18)*1440&gt;90,(G18-N18)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="14" t="str">
-        <f>IF((F18-M18)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L18" s="14" t="str">
-        <f>IF((G18-N18)&lt;0,IF((G18-N18)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="15">
+      <c r="J18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M18" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="A19" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
         <v>43104</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>0.38541666666666669</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>0.8569444444444444</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13">
-        <f>IF((F19-M19)&gt;=0,IF((F19-M19)*1440&gt;90,0,(F19-M19)*1440),0)</f>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12">
+        <f t="shared" si="0"/>
         <v>44.999999999999517</v>
       </c>
-      <c r="J19" s="13">
-        <f>IF(G19-N19&gt;=0,IF((G19-N19)*1440&gt;90,(G19-N19)*1440,0),0)</f>
+      <c r="J19" s="12">
+        <f t="shared" si="1"/>
         <v>124.00000000000036</v>
       </c>
-      <c r="K19" s="14" t="str">
-        <f>IF((F19-M19)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L19" s="14" t="str">
-        <f>IF((G19-N19)&lt;0,IF((G19-N19)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="15">
+      <c r="K19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M19" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="A20" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
         <v>43103</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>0.38611111111111113</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>0.75347222222222221</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13">
-        <f>IF((F20-M20)&gt;=0,IF((F20-M20)*1440&gt;90,0,(F20-M20)*1440),0)</f>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12">
+        <f t="shared" si="0"/>
         <v>45.999999999999517</v>
       </c>
-      <c r="J20" s="13">
-        <f>IF(G20-N20&gt;=0,IF((G20-N20)*1440&gt;90,(G20-N20)*1440,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14" t="str">
-        <f>IF((F20-M20)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L20" s="14" t="str">
-        <f>IF((G20-N20)&lt;0,IF((G20-N20)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="15">
+      <c r="J20" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M20" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="9">
-        <v>54780</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="A21" s="8">
+        <v>54780</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
         <v>43102</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>0.38819444444444445</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>0.85486111111111107</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13">
-        <f>IF((F21-M21)&gt;=0,IF((F21-M21)*1440&gt;90,0,(F21-M21)*1440),0)</f>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12">
+        <f t="shared" si="0"/>
         <v>48.999999999999503</v>
       </c>
-      <c r="J21" s="13">
-        <f>IF(G21-N21&gt;=0,IF((G21-N21)*1440&gt;90,(G21-N21)*1440,0),0)</f>
+      <c r="J21" s="12">
+        <f t="shared" si="1"/>
         <v>121.00000000000037</v>
       </c>
-      <c r="K21" s="14" t="str">
-        <f>IF((F21-M21)*1440&gt;90,"早上忘打卡","")</f>
-        <v/>
-      </c>
-      <c r="L21" s="14" t="str">
-        <f>IF((G21-N21)&lt;0,IF((G21-N21)*1440&lt;-30,"晚上忘打卡",""),"")</f>
-        <v/>
-      </c>
-      <c r="M21" s="15">
+      <c r="K21" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L21" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M21" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <v>0.77083333333333304</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="25" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
